--- a/for_rma_AD_vs_Placebo_suicideattempts.xlsx
+++ b/for_rma_AD_vs_Placebo_suicideattempts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakobkaminski 1/ownCloud/antidepressants_kill/collaboration_with_constantin/antidepressants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0FB0FE-1FF5-B64A-8588-BC5EF87666AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CA72F7-3663-704C-A5B5-E9C1E2A7992E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="1020" windowWidth="27840" windowHeight="16600" xr2:uid="{DDF8FC1F-EEF6-DA4E-AE28-429F2E631246}"/>
+    <workbookView xWindow="15080" yWindow="1240" windowWidth="27840" windowHeight="16600" xr2:uid="{DDF8FC1F-EEF6-DA4E-AE28-429F2E631246}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
